--- a/Node Power and cooling.xlsx
+++ b/Node Power and cooling.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRD\EoR\HERA\Node\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21936" windowHeight="8304"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>White Rabbit</t>
   </si>
@@ -33,48 +32,15 @@
     <t>Beaglebone</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>Fan</t>
-  </si>
-  <si>
-    <t>Power(W)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Current(A)</t>
-  </si>
-  <si>
-    <t>Voltage(V)</t>
-  </si>
-  <si>
-    <t>Qt.</t>
-  </si>
-  <si>
-    <t>+12V Power Distribution</t>
-  </si>
-  <si>
-    <t>+5V Power distribution</t>
-  </si>
-  <si>
-    <t>Power Dissipaton  Inside</t>
-  </si>
-  <si>
     <t>Interface Logic and Monitoring</t>
   </si>
   <si>
     <t>Power Consumed by the node</t>
   </si>
   <si>
-    <t>230AC</t>
-  </si>
-  <si>
     <t>Air Flow</t>
   </si>
   <si>
@@ -181,17 +147,137 @@
   </si>
   <si>
     <t xml:space="preserve">FPGA power as function of SNAP power </t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Amps</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>+12V switching/digital power generation and distribution</t>
+  </si>
+  <si>
+    <t>+5V switching/digital power generation and distribution</t>
+  </si>
+  <si>
+    <t>Front End Modules (FEM)</t>
+  </si>
+  <si>
+    <t>FEM linear/analog power generation and distribution</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>switching power supplies are about 80% efficient</t>
+  </si>
+  <si>
+    <t>linear power supplies are about 45% efficient</t>
+  </si>
+  <si>
+    <t>PAM linear/analog power generation and distribution</t>
+  </si>
+  <si>
+    <t>Post Amplificer Modules (PAM) : External to Node Enclosure</t>
+  </si>
+  <si>
+    <t>1.6Amp is a measured values; use 2A for margin</t>
+  </si>
+  <si>
+    <t>SNAPv2</t>
+  </si>
+  <si>
+    <t>The FEM heat is NOT dissipated inside the Node Enclosure</t>
+  </si>
+  <si>
+    <t>(PSU efficiency)</t>
+  </si>
+  <si>
+    <t>Externally mounted centrifugal fan</t>
+  </si>
+  <si>
+    <t>The Fan heat is NOT dissipated inside the Node Enclosure.  Operating point on curve is 0.32A 66W.  The fan is rate for 0.36A and 90W.</t>
+  </si>
+  <si>
+    <t>Power dissipated inside the Node Enclosure</t>
+  </si>
+  <si>
+    <t>input VAC voltage</t>
+  </si>
+  <si>
+    <t>power factor</t>
+  </si>
+  <si>
+    <t>generic value from generic linea power supply : http://www.acopian.com/linear-power-supply-vs-switching-power-supply-vs-unregulated-power-supply.html</t>
+  </si>
+  <si>
+    <t>VAC input Amps</t>
+  </si>
+  <si>
+    <t>VAC current input to the Node Enclosure</t>
+  </si>
+  <si>
+    <t>(assuming fan is at operating point 2 (see datasheet)</t>
+  </si>
+  <si>
+    <t>Input VAC currents (nominal operating mode)</t>
+  </si>
+  <si>
+    <t>Inrush Input VAC currents</t>
+  </si>
+  <si>
+    <t>includes current for FEM and external centrifugal fan</t>
+  </si>
+  <si>
+    <t>total guess for the TBD Lineare power supply inrush</t>
+  </si>
+  <si>
+    <t>When the Node Enlcosure is "turned on" only the +5V supply turns on.</t>
+  </si>
+  <si>
+    <t>Then if the internal computer decides everything is ok then it will turn on the other VAC consumers  and it can do this 1consumer at a time.</t>
+  </si>
+  <si>
+    <t>Power dissipated at the feeds</t>
+  </si>
+  <si>
+    <t>Power dissipated at the centrifugal fan</t>
+  </si>
+  <si>
+    <t>This heat will be handled by long run of buried ducting between the centrifugal fan and the Node Enclosure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +297,30 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +356,29 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,508 +694,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A3:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f>B4*C4</f>
-        <v>24</v>
-      </c>
-      <c r="E4">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F10" si="0">E4*D4</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1.6</v>
-      </c>
-      <c r="D5">
-        <f>B5*C5</f>
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <f>2.34/(2*6)</f>
+        <v>0.19499999999999998</v>
       </c>
       <c r="D6">
         <f>B6*C6</f>
-        <v>10</v>
+        <v>0.97499999999999987</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="F6" si="0">E6*D6</f>
+        <v>11.7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>5.67/(2*6)</f>
+        <v>0.47249999999999998</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <f>B7*C7</f>
+        <v>2.3624999999999998</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+        <f t="shared" ref="F7:F9" si="1">E7*D7</f>
+        <v>28.349999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="2">
-        <f>(1-B8)*F4</f>
-        <v>24</v>
+        <v>0.45</v>
+      </c>
+      <c r="D8">
+        <f>(1/B8-1)*F6</f>
+        <v>14.3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>14.3</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4">
-        <f>(1-B9)*(F5+F6)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D9">
+        <f>(1/B9-1)*F7</f>
+        <v>34.65</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>34.65</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
       <c r="D10">
         <f>B10*C10</f>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="2">E10*D10</f>
+        <v>96</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12">
-        <f>SUM(D4:D11)</f>
-        <v>175.5</v>
+        <f>B12*C12</f>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
-        <f>SUM(F4:F11)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="2">
+        <f>(1/B13-1)*F10</f>
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(1/B14-1)*(F11+F12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <f>B15*C15</f>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>0.32</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>66</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F6:F17)</f>
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="14">
+        <f>F18-F6-F16</f>
+        <v>224.8</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14">
+        <f>F6</f>
+        <v>11.7</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="14">
+        <f>F16</f>
+        <v>66</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0.65</v>
+      </c>
+      <c r="C28" s="17">
+        <f>(F6+F8)/($B$25*B28)</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>0.65</v>
+      </c>
+      <c r="C29" s="17">
+        <f>(F7+F9)/($B$25*B29)</f>
+        <v>0.42140468227424749</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>0.93</v>
+      </c>
+      <c r="C30" s="17">
+        <f>(F10+F13)/($B$25*B30)</f>
+        <v>0.56100981767180924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>0.93</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(F11+F12+F14+F15)/($B$25*B31)</f>
+        <v>0.12856474988312294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3">
+        <f>66/(B16*C16)</f>
+        <v>0.89673913043478248</v>
+      </c>
+      <c r="C32" s="17">
+        <f>(F16)/($B$25*B32)</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="18">
+        <f>SUM(C28:C33)</f>
+        <v>1.6048922933074408</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5">
+        <f>B48*POWER(0.3048,3)</f>
+        <v>3.0015857387520004</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B53" s="2">
+        <f>POWER((B50-2*B51)/2,2)*PI()</f>
+        <v>8494.8665353068009</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B24*POWER(0.3048,3)</f>
-        <v>3.0015857387520004</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="B54" s="2">
+        <f>POWER(B50/2,2)*PI()</f>
+        <v>9503.317777109125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <f>B49/(B53/POWER(1000,2))</f>
+        <v>353.34112976073908</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>B55/60</f>
+        <v>5.8890188293456509</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B56/0.33048</f>
+        <v>17.819592197245374</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <f>POWER((B26-2*B27)/2,2)*PI()</f>
-        <v>8494.8665353068009</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <f>POWER(B26/2,2)*PI()</f>
-        <v>9503.317777109125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <f>B25/(B29/POWER(1000,2))</f>
-        <v>353.34112976073908</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32">
-        <f>B31/60</f>
-        <v>5.8890188293456509</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33">
-        <f>B32/0.33048</f>
-        <v>17.819592197245374</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
+      <c r="B64">
         <f>1*8*10</f>
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>(B64/POWER(12,2))*POWER(0.3048,2)</f>
+        <v>5.1612800000000007E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>1.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B71" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <f>SUM(67:71)</f>
+        <v>1.8695000000000002</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <f>B66-D10*B74*B72</f>
+        <v>44.105599999999988</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76">
+        <f>B75-(D10/((B62*B65)))</f>
+        <v>28.60556899993799</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41">
-        <f>(B40/POWER(12,2))*POWER(0.3048,2)</f>
-        <v>5.1612800000000007E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B42">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B80" s="7">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
+      <c r="B81" s="7">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>38</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <f>SUM(43:47)</f>
-        <v>1.8695000000000002</v>
-      </c>
-      <c r="C48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <f>B42-D4*B50*B48</f>
-        <v>44.105599999999988</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f>B51-(D4/((B38*B41)))</f>
-        <v>28.60556899993799</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="7">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="7">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1"/>
+    <hyperlink ref="A61" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Node Power and cooling.xlsx
+++ b/Node Power and cooling.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRD\EoR\HERA\Node\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zara\Documents\node-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>White Rabbit</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Inrush Input VAC currents</t>
   </si>
   <si>
-    <t>includes current for FEM and external centrifugal fan</t>
-  </si>
-  <si>
     <t>total guess for the TBD Lineare power supply inrush</t>
   </si>
   <si>
@@ -267,12 +264,18 @@
   </si>
   <si>
     <t>This heat will be handled by long run of buried ducting between the centrifugal fan and the Node Enclosure</t>
+  </si>
+  <si>
+    <t>VAC current input to the Node (Total)</t>
+  </si>
+  <si>
+    <t>Includes current for FEM and external centrifugal fan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -696,19 +699,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.15625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
@@ -716,7 +719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -737,7 +740,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B5" s="10" t="s">
         <v>62</v>
       </c>
@@ -754,7 +757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -780,7 +783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -803,7 +806,7 @@
         <v>28.349999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -825,7 +828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -847,7 +850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -872,7 +875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -894,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -916,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -938,7 +941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -960,7 +963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -982,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -1025,9 +1028,9 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A21" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="14">
         <f>F6</f>
@@ -1035,22 +1038,22 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.75">
       <c r="A22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="14">
         <f>F16</f>
         <v>66</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="G23" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>0.56100981767180924</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>0.12856474988312294</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1139,34 +1142,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A34" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="18">
-        <f>SUM(C28:C33)</f>
-        <v>1.6048922933074408</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C29:C31)</f>
+        <v>1.1109792498291795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.75">
+      <c r="A35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="18">
+        <f>SUM(C32,C34,C28)</f>
+        <v>1.6048922933074405</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1174,10 +1186,10 @@
         <v>40</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1185,10 +1197,10 @@
         <v>40</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1204,12 +1216,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <f>B55/60</f>
         <v>5.8890188293456509</v>
@@ -1299,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <f>B56/0.33048</f>
         <v>17.819592197245374</v>
@@ -1308,12 +1320,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <f>(B64/POWER(12,2))*POWER(0.3048,2)</f>
         <v>5.1612800000000007E-2</v>
@@ -1348,7 +1360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>38</v>
       </c>

--- a/Node Power and cooling.xlsx
+++ b/Node Power and cooling.xlsx
@@ -269,7 +269,7 @@
     <t>VAC current input to the Node (Total)</t>
   </si>
   <si>
-    <t>Includes current for FEM and external centrifugal fan</t>
+    <t>Includes current for external centrifugal fan</t>
   </si>
 </sst>
 </file>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1147,8 +1147,8 @@
         <v>70</v>
       </c>
       <c r="C34" s="18">
-        <f>SUM(C29:C31)</f>
-        <v>1.1109792498291795</v>
+        <f>SUM(C28:C31)</f>
+        <v>1.2848922933074407</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.75">
@@ -1156,8 +1156,8 @@
         <v>80</v>
       </c>
       <c r="C35" s="18">
-        <f>SUM(C32,C34,C28)</f>
-        <v>1.6048922933074405</v>
+        <f>SUM(C32,C34)</f>
+        <v>1.6048922933074408</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>81</v>

--- a/Node Power and cooling.xlsx
+++ b/Node Power and cooling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -699,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
